--- a/10_anime_vs_real/stats.xlsx
+++ b/10_anime_vs_real/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Deep-Learning\10_anime_vs_real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5446C5F-5980-4F7A-960D-A9792A1AFE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19028A53-8F74-4DB3-AF84-5AA1A0C609F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A4F4BC02-E63D-456E-B145-BEA8F2DE656B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Training accuracy</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>(c16, mp2, c32, mp2, c64, mp2, c64, mp2, f, d512, d1)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>(rot40, wid0.2, hgt0.2,shr0.2,z0.5,hf)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,11 +447,11 @@
     <col min="5" max="5" width="1.81640625" customWidth="1"/>
     <col min="7" max="7" width="1.54296875" customWidth="1"/>
     <col min="9" max="9" width="1.54296875" customWidth="1"/>
-    <col min="10" max="10" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -522,6 +528,18 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>73.28</v>
+      </c>
+      <c r="D3">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="F3">
+        <v>73.55</v>
+      </c>
+      <c r="H3">
+        <v>0.55249999999999999</v>
+      </c>
       <c r="J3" t="s">
         <v>16</v>
       </c>
@@ -545,10 +563,58 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>90.8</v>
+      </c>
+      <c r="D4">
+        <v>0.2382</v>
+      </c>
+      <c r="F4">
+        <v>71.61</v>
+      </c>
+      <c r="H4">
+        <v>0.6331</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>64</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">

--- a/10_anime_vs_real/stats.xlsx
+++ b/10_anime_vs_real/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Deep-Learning\10_anime_vs_real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19028A53-8F74-4DB3-AF84-5AA1A0C609F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6F068-3827-4114-AA61-206498B27FA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A4F4BC02-E63D-456E-B145-BEA8F2DE656B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Training accuracy</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>(rot40, wid0.2, hgt0.2,shr0.2,z0.5,hf)</t>
+  </si>
+  <si>
+    <t>(5,5)</t>
+  </si>
+  <si>
+    <t>(480, 854)</t>
+  </si>
+  <si>
+    <t>(c16, mp2, c32, mp2, c32, mp2, c64, mp2, c64, mp2, f, d512, d1)</t>
   </si>
 </sst>
 </file>
@@ -436,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C737E9CB-41BA-4046-A1B8-97492569D0CE}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,7 +456,7 @@
     <col min="5" max="5" width="1.81640625" customWidth="1"/>
     <col min="7" max="7" width="1.54296875" customWidth="1"/>
     <col min="9" max="9" width="1.54296875" customWidth="1"/>
-    <col min="10" max="10" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -598,6 +607,18 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>86.68</v>
+      </c>
+      <c r="D5">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="F5">
+        <v>77.42</v>
+      </c>
+      <c r="H5">
+        <v>0.80689999999999995</v>
+      </c>
       <c r="J5" t="s">
         <v>16</v>
       </c>
@@ -620,6 +641,24 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>150</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
